--- a/Literature_Review/mohan_ethan_vu_papers_r2.xlsx
+++ b/Literature_Review/mohan_ethan_vu_papers_r2.xlsx
@@ -1,37 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vu\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MohanR/scpd/NaturalLanguageUnderstanding/Project/NLU_Project/Literature_Review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75025E53-D6BC-46A9-99F8-1A7C3DE30900}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3504E0C-C4B9-FB44-84D9-317CF867B04C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{E93EF467-E4CC-40BA-A53E-19CDFA22548F}"/>
+    <workbookView xWindow="-37520" yWindow="-4540" windowWidth="34280" windowHeight="21140" activeTab="1" xr2:uid="{E93EF467-E4CC-40BA-A53E-19CDFA22548F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="KG " sheetId="1" r:id="rId1"/>
+    <sheet name="Paper 1 - 4 " sheetId="2" r:id="rId2"/>
+    <sheet name="Paper 5 - 9" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>Concise Summary of the article</t>
   </si>
@@ -120,6 +116,65 @@
   <si>
     <t>Using the embedding word representations for the KG, the research can handle questions that have entities and predicates different from the ones in the training data by finding the closest entity and relation candidates. The embeddings also preserve the sentence structure and relation information which helps better predictions of predicate and entities from the KG. The model uses an attention-based BiLSTM to calculate the representations of the predicate and head entity.  Instead of searching all the head entities in the KG which consumes time, a head entity detection model is used to select successive tokens in the question as the name of the head entity.  A special distance function is used to find the final triple as the answer for the question.  The model runs on two Freebase subsets FB2M, FB5M and the SimpleQuestions question set
 - Experiments show this model has better performance than all state-of-the-art method.</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Main task</t>
+  </si>
+  <si>
+    <t>Architecture</t>
+  </si>
+  <si>
+    <t>Training Data Set</t>
+  </si>
+  <si>
+    <t>Performance Measured on Data Set</t>
+  </si>
+  <si>
+    <t>Performance Metric</t>
+  </si>
+  <si>
+    <t>Performance Value</t>
+  </si>
+  <si>
+    <t>English German (4.5M Sentence Pairs, 37K tokens/English French (36M Sentences,25K tokens)</t>
+  </si>
+  <si>
+    <t>Exact Match, F1 Score</t>
+  </si>
+  <si>
+    <t>SQuaAD 1.1, SQuAD 2.0, MRQA</t>
+  </si>
+  <si>
+    <t>1.1 - (EM 88.8, F1 94.6)
+2.0 - (EM -85.7, 88.7)
+MRQA - Avg (F1 -81.5))</t>
+  </si>
+  <si>
+    <t>Attention is all you need</t>
+  </si>
+  <si>
+    <t>Encoder  (6 layer Decoder Stack + &lt;Some</t>
+  </si>
+  <si>
+    <t>Personalized</t>
+  </si>
+  <si>
+    <t>Bi LSTM</t>
+  </si>
+  <si>
+    <t>Attention, Positional Encoding</t>
+  </si>
+  <si>
+    <t>Key Concepts</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>SpanBert</t>
   </si>
 </sst>
 </file>
@@ -187,7 +242,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -216,6 +271,9 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -223,8 +281,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -543,25 +601,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C26AFAAB-D850-4ADF-9710-2BBAC2DDD41F}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.46484375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="71.3984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="75.3984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="66.86328125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.06640625" style="2"/>
+    <col min="1" max="1" width="31.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="71.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="75.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="66.83203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -575,17 +633,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="9" customFormat="1" ht="101.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" s="9" customFormat="1" ht="101.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="1:4" ht="80" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -599,7 +657,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="108" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -613,7 +671,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="306" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" ht="320" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,17 +685,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:4" ht="214.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" spans="1:4" ht="214.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -648,24 +706,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="73.900000000000006" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D11" s="5"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D13" s="7"/>
     </row>
   </sheetData>
@@ -681,4 +739,154 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C62BA1-05FF-5645-A22B-91ADDB190752}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection sqref="A1:A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F903A6AD-2FD8-7A44-A9E0-DE8EA5C60485}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>